--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Price</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>rosun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>dal - 2Kg</t>
+  </si>
+  <si>
+    <t>tal</t>
+  </si>
+  <si>
+    <t>chal 9KG</t>
   </si>
 </sst>
 </file>
@@ -385,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +447,12 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -446,6 +464,25 @@
       </c>
       <c r="G2">
         <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Price</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>chal 9KG</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>begun+tometo</t>
+  </si>
+  <si>
+    <t>lal shak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chal kumra </t>
   </si>
 </sst>
 </file>
@@ -397,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,6 +479,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -476,13 +494,33 @@
       <c r="E3">
         <v>180</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4">
         <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Price</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t xml:space="preserve">Chal kumra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gura morich </t>
+  </si>
+  <si>
+    <t>alu</t>
+  </si>
+  <si>
+    <t>peaj</t>
   </si>
 </sst>
 </file>
@@ -409,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +532,30 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Price</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>peaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shak </t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,6 +559,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Price</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Rana</t>
   </si>
   <si>
-    <t>left</t>
-  </si>
-  <si>
     <t>Oil</t>
   </si>
   <si>
@@ -80,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">Shak </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -115,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +442,7 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -467,101 +471,120 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>495</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2">
+        <v>200</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+      <c r="K2">
+        <v>435</v>
+      </c>
+      <c r="L2">
+        <v>1135</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>70</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
       <c r="E3">
         <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>20</v>

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Price</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Maas</t>
+  </si>
+  <si>
+    <t>lobon</t>
+  </si>
+  <si>
+    <t>vim</t>
   </si>
 </sst>
 </file>
@@ -425,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,6 +599,30 @@
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Price</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>vim</t>
+  </si>
+  <si>
+    <t>Murgi+ chili</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +561,12 @@
       <c r="E4">
         <v>140</v>
       </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>220</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Price</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>Murgi+ chili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim </t>
+  </si>
+  <si>
+    <t>shak</t>
+  </si>
+  <si>
+    <t>chili</t>
   </si>
 </sst>
 </file>
@@ -440,7 +449,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +584,12 @@
       <c r="B5">
         <v>20</v>
       </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -583,6 +598,12 @@
       <c r="B6">
         <v>30</v>
       </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -590,6 +611,12 @@
       </c>
       <c r="B7">
         <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Price</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>chili</t>
+  </si>
+  <si>
+    <t>chal + alu oil</t>
+  </si>
+  <si>
+    <t>murgi+kaktol</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,6 +596,12 @@
       <c r="E5">
         <v>35</v>
       </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>520</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -625,6 +637,12 @@
       </c>
       <c r="B8">
         <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Price</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>murgi+kaktol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bazer </t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,6 +680,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Price</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">bazer </t>
+  </si>
+  <si>
+    <t>pepe</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,6 +658,12 @@
       <c r="B9">
         <v>20</v>
       </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">

--- a/August.xlsx
+++ b/August.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +473,7 @@
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -622,6 +623,15 @@
       <c r="E6">
         <v>20</v>
       </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>480</v>
+      </c>
+      <c r="M6" s="1">
+        <v>44434</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Price</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>pepe</t>
+  </si>
+  <si>
+    <t>Chal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rana vai chilo na </t>
   </si>
 </sst>
 </file>
@@ -458,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,6 +688,12 @@
       <c r="B10">
         <v>400</v>
       </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>165</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -690,6 +702,12 @@
       <c r="B11">
         <v>35</v>
       </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -705,6 +723,14 @@
       </c>
       <c r="B13">
         <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Price</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rana vai chilo na </t>
+  </si>
+  <si>
+    <t>bazer</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,6 +632,12 @@
       <c r="E6">
         <v>20</v>
       </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>110</v>
+      </c>
       <c r="I6">
         <v>200</v>
       </c>

--- a/August.xlsx
+++ b/August.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Price</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>bazer</t>
+  </si>
+  <si>
+    <t>Parperson</t>
+  </si>
+  <si>
+    <t>Due</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +488,7 @@
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -661,6 +668,9 @@
       <c r="E7">
         <v>10</v>
       </c>
+      <c r="G7">
+        <v>435</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -725,6 +735,9 @@
       <c r="B12">
         <v>32</v>
       </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -740,6 +753,69 @@
       </c>
       <c r="B14">
         <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>SUM(B2:B16)</f>
+        <v>1577</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E2:E16)</f>
+        <v>1500</v>
+      </c>
+      <c r="G17">
+        <f>SUM(G2:G16)</f>
+        <v>1470</v>
+      </c>
+      <c r="J17">
+        <f>SUM(B17:I17)</f>
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <f>SUM(J19-B17)</f>
+        <v>-61.333333333333258</v>
+      </c>
+      <c r="E19">
+        <f>SUM(J19-E17)</f>
+        <v>15.666666666666742</v>
+      </c>
+      <c r="G19">
+        <f>SUM(J19-G17)</f>
+        <v>45.666666666666742</v>
+      </c>
+      <c r="J19">
+        <f>SUM(J17/3)</f>
+        <v>1515.6666666666667</v>
       </c>
     </row>
   </sheetData>
